--- a/biology/Médecine/Glenn_Cooper/Glenn_Cooper.xlsx
+++ b/biology/Médecine/Glenn_Cooper/Glenn_Cooper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glenn Cooper, né le 8 janvier 1953 à White Plains, dans l'État de New York, est un médecin, romancier, scénariste et producteur de cinéma américain, auteur de roman policier.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est élevé dans la banlieue de New York et fait ses études supérieures à l'Université Harvard, où il obtient un baccalauréat en archéologie, avec mention honorifique (magna cum laude), en 1974. Il entre ensuite à la faculté de médecine de l'Université Tufts et reçoit son diplôme en 1978. Il complète un internat et une résidence en médecine interne au Beth Israel Deaconess Medical Center, puis se spécialise dans les maladies infectieuses au Massachusetts General Hospital de Boston. Il s'engage ensuite, sous l'égide de l'International Rescue Committee, comme médecin d'urgence au camp de réfugiés de Khao-I-Dang en Thaïlande, puis à l'Hôpital Albert Schweitzer en Haïti. Il a aussi travaillé, pendant deux ans, pour l'US Public Health Service de Loewell, au Massachusetts.
 En 1985, il est embauché par le groupe pharmaceutique Eli Lilly, où il mène d'abord des recherches sur de nouveaux antibiotiques, avant d'occuper d'autres fonctions au sein de l'entreprise tant en Amérique qu'en Angleterre. À partir de 1990, il travaille pour d'autres compagnies pharmaceutiques et, en 2009, il est président-directeur général de Endo Pharmaceuticals. Il supervise aussi l'approbation par la FDA et la commercialisation de plusieurs médicaments pour des traitements en urologie et endocrinologie.
@@ -547,23 +561,130 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Will Piper
-Le Livre des morts, Le Cherche midi, coll. « Ailleurs », 2010 ((en) The Library of the Dead, 2009), trad. Carine Chichereau, 419 p.  (ISBN 978-2-7491-1665-5)Paru également sous le titre Secret of the Seventh Son
+          <t>Série Will Piper</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Livre des morts, Le Cherche midi, coll. « Ailleurs », 2010 ((en) The Library of the Dead, 2009), trad. Carine Chichereau, 419 p.  (ISBN 978-2-7491-1665-5)Paru également sous le titre Secret of the Seventh Son
 Le Livre des âmes, Le Cherche midi, coll. « Thrillers », 2010 ((en) The Book of Souls, 2010), trad. Carine Chichereau, 393 p.  (ISBN 978-2-7491-1672-3)
-Le Livre des prophéties, Le Cherche midi, coll. « Thrillers », 2014 ((en) The Keepers of the Library, 2013), trad. Caroline Nicolas, 348 p.  (ISBN 978-2-7491-2912-9)
-Série La Terre des damnés
-La Porte des ténèbres, Le Cherche midi, coll. « Thrillers », 2016 ((en) Pinhole, 2015), trad. Diniz Galhos, 624 p.  (ISBN 978-2-7491-4258-6)
+Le Livre des prophéties, Le Cherche midi, coll. « Thrillers », 2014 ((en) The Keepers of the Library, 2013), trad. Caroline Nicolas, 348 p.  (ISBN 978-2-7491-2912-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glenn_Cooper</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glenn_Cooper</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série La Terre des damnés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Porte des ténèbres, Le Cherche midi, coll. « Thrillers », 2016 ((en) Pinhole, 2015), trad. Diniz Galhos, 624 p.  (ISBN 978-2-7491-4258-6)
 Le Feu des âmes, Le Cherche midi, coll. « Thrillers », 2017 ((en) Portal, 2015), trad. Diniz Galhos, 608 p.  (ISBN 978-2-7491-4261-6)
-La Clé des ombres, Le Cherche midi, coll. « Thrillers », 2017 ((en) Floodgate, 2015), trad. Diniz Galhos, 520 p.  (ISBN 978-2-7491-4262-3)
-Série Cal Donovan
-Le Livre de la Croix, City Éditions, 2019 ((en) The Sign of the Cross, Severn House Publishers Ltd, 2018  (ISBN 9780727829191)), thriller, 400 p.  (ISBN 9782824613826)
+La Clé des ombres, Le Cherche midi, coll. « Thrillers », 2017 ((en) Floodgate, 2015), trad. Diniz Galhos, 520 p.  (ISBN 978-2-7491-4262-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Glenn_Cooper</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glenn_Cooper</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Cal Donovan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Livre de la Croix, City Éditions, 2019 ((en) The Sign of the Cross, Severn House Publishers Ltd, 2018  (ISBN 9780727829191)), thriller, 400 p.  (ISBN 9782824613826)
 Le Livre des Vierges, City Éditions, 2019 ((en) Three Marys, Severn House Publishers Ltd, 2018  (ISBN 978-0727888211)), thriller, trad. Sophie Taam, 320 p.  (ISBN 9782824633084)
 (en) The Debt, 2019
 (en) The Showstone, 2019
 La Dernière des Prophéties, City Éditions, 2022 ((en) The Fourth Prophecy, Severn House Publishers Ltd, 2022), thriller, trad. Sophie Taam, 336 p.  (ISBN 9782824620589)
-Le Secret de Marie-Madeleine ((en) The Lost Pope, 2023)
-Romans indépendants
-Le Testament des templiers, Le Cherche midi, coll. « Thrillers », 2012 ((en) The Tenth Chamber, 2010), trad. Danièle Mazingarbe, 422 p.  (ISBN 978-2-7491-1831-4)
+Le Secret de Marie-Madeleine ((en) The Lost Pope, 2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Glenn_Cooper</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glenn_Cooper</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Testament des templiers, Le Cherche midi, coll. « Thrillers », 2012 ((en) The Tenth Chamber, 2010), trad. Danièle Mazingarbe, 422 p.  (ISBN 978-2-7491-1831-4)
 La Prophétie des papes, Le Cherche midi, coll. « Thrillers », 2013 ((en) The Devil Will Come, 2011), trad. Sophie Aslanides, 411 p.  (ISBN 978-2-7491-2196-3)
 (en) Near Death, 2014
 Le Secret du Graal, Le Cherche midi, coll. « Thrillers », 2014 ((en) The Resurrection Maker, 2014), trad. Bérénice Paupert, 448 p.  (ISBN 978-2-7491-3977-7)
@@ -572,36 +693,75 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Glenn_Cooper</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Glenn_Cooper</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En tant que scénariste
-2005 : Long Distance, film américain réalisé par Marcus Stern, avec Monica Keena, Ivan Martin et Kevin Chapman
-En tant que producteur
-2013 : Dark Feed, film américain réalisé par Michael Rasmussen et Shaw Rasmussen
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En tant que scénariste</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2005 : Long Distance, film américain réalisé par Marcus Stern, avec Monica Keena, Ivan Martin et Kevin Chapman</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Glenn_Cooper</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glenn_Cooper</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En tant que producteur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2013 : Dark Feed, film américain réalisé par Michael Rasmussen et Shaw Rasmussen
 2015 : The Inhabitants, film américain réalisé par Michael Rasmussen et Shaw Rasmussen</t>
         </is>
       </c>
